--- a/dualHbridge-v4bom.xlsx
+++ b/dualHbridge-v4bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7896e7ab03a0275/Documents/GitHub/dualhbridge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lafel\OneDrive\Documents\GitHub\dualhbridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="14" documentId="8_{A7DC8C4C-BEF7-4A3D-9FAD-439FC9EE96FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EAF0F5D4-FEF1-48DB-BF64-81A6333367DF}"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
